--- a/biology/Zoologie/Cunnawarra_grayi/Cunnawarra_grayi.xlsx
+++ b/biology/Zoologie/Cunnawarra_grayi/Cunnawarra_grayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cunnawarra grayi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cunnawarra grayi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la forêt nationale de la rivière Styx vers 950 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la forêt nationale de la rivière Styx vers 950 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,8 mm de long sur 1,9 mm de large et l'abdomen 3,1 mm de long sur 2,0 mm de large. La carapace du mâle paratype mesure 2,9 mm de long sur 2,1 mm de large et l'abdomen 2,4 mm de long sur 1,7 mm de large[2]. Les mâles mesurent de 4,9 à 5,5 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,8 mm de long sur 1,9 mm de large et l'abdomen 3,1 mm de long sur 2,0 mm de large. La carapace du mâle paratype mesure 2,9 mm de long sur 2,1 mm de large et l'abdomen 2,4 mm de long sur 1,7 mm de large. Les mâles mesurent de 4,9 à 5,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael R. Gray[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael R. Gray.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1998 : A revision of the Australian metaltellines (Araneae: Amaurobioidea: Amphinectidae: Metaltellinae). Invertebrate Taxonomy, vol. 12, no 2, p. 211-243.</t>
         </is>
